--- a/data/s_vals/2023/balazovic_jordan.xlsx
+++ b/data/s_vals/2023/balazovic_jordan.xlsx
@@ -472,22 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2051611557409778</v>
+        <v>0.006876353814593728</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07547255899491345</v>
+        <v>0.004309184025731883</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2168782717193853</v>
+        <v>0.1529057820181812</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8191437775164554</v>
+        <v>6.48142807727062</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.316655763971732</v>
+        <v>6.645519397129127</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.592038685284193</v>
+        <v>0.7287194209349384</v>
       </c>
       <c r="C3" t="n">
-        <v>1.329362116779562</v>
+        <v>1.65323645889881</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9945002603303881</v>
+        <v>3.082599426703578</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3401128002026628</v>
+        <v>0.4998867070740569</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>4.256013862596806</v>
+        <v>5.964442013611383</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.641759230980763</v>
+        <v>3.182878228561681</v>
       </c>
       <c r="C4" t="n">
-        <v>1.329362116779562</v>
+        <v>1.65323645889881</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2168782717193853</v>
+        <v>0.1529057820181812</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3401128002026628</v>
+        <v>0.4998867070740569</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>5.528112419682373</v>
+        <v>5.488907176552729</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2023/balazovic_jordan.xlsx
+++ b/data/s_vals/2023/balazovic_jordan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>sum</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Save</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>6.645519397129127</v>
       </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -514,6 +522,9 @@
       <c r="G3" t="n">
         <v>5.964442013611383</v>
       </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -538,6 +549,9 @@
       </c>
       <c r="G4" t="n">
         <v>5.488907176552729</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2023/balazovic_jordan.xlsx
+++ b/data/s_vals/2023/balazovic_jordan.xlsx
@@ -477,25 +477,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.006876353814593728</v>
+        <v>0.003208871385164791</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004309184025731883</v>
+        <v>0.002571899574220771</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1529057820181812</v>
+        <v>0.1494219747398047</v>
       </c>
       <c r="E2" t="n">
-        <v>6.48142807727062</v>
+        <v>10.19245300693656</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.645519397129127</v>
+        <v>10.34765575263575</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -505,22 +505,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7287194209349384</v>
+        <v>0.6606524410359556</v>
       </c>
       <c r="C3" t="n">
-        <v>1.65323645889881</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D3" t="n">
-        <v>3.082599426703578</v>
+        <v>3.537761648806719</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4998867070740569</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>5.964442013611383</v>
+        <v>6.348428708163715</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.182878228561681</v>
+        <v>3.286832544864788</v>
       </c>
       <c r="C4" t="n">
-        <v>1.65323645889881</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1529057820181812</v>
+        <v>0.1494219747398047</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4998867070740569</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>5.488907176552729</v>
+        <v>5.586269137925634</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
